--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -540,10 +540,10 @@
         <v>0.687972</v>
       </c>
       <c r="I2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N2">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q2">
-        <v>0.04971140433466666</v>
+        <v>0.02190281168133333</v>
       </c>
       <c r="R2">
-        <v>0.4474026390119999</v>
+        <v>0.197125305132</v>
       </c>
       <c r="S2">
-        <v>0.008075943910825225</v>
+        <v>0.01541382145759417</v>
       </c>
       <c r="T2">
-        <v>0.008075943910825226</v>
+        <v>0.01541382145759417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.687972</v>
       </c>
       <c r="I3">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J3">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>1.038293</v>
       </c>
       <c r="O3">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P3">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q3">
         <v>0.07936850131066665</v>
@@ -632,10 +632,10 @@
         <v>0.714316511796</v>
       </c>
       <c r="S3">
-        <v>0.01289393396646034</v>
+        <v>0.05585455996967108</v>
       </c>
       <c r="T3">
-        <v>0.01289393396646035</v>
+        <v>0.05585455996967107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.687972</v>
       </c>
       <c r="I4">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J4">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N4">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q4">
-        <v>0.6990040896679999</v>
+        <v>1.004813988298667</v>
       </c>
       <c r="R4">
-        <v>6.291036807011999</v>
+        <v>9.043325894688001</v>
       </c>
       <c r="S4">
-        <v>0.1135578022216432</v>
+        <v>0.707124895153458</v>
       </c>
       <c r="T4">
-        <v>0.1135578022216432</v>
+        <v>0.7071248951534579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H5">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I5">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J5">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N5">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q5">
-        <v>0.3198140665432223</v>
+        <v>0.006235678642666666</v>
       </c>
       <c r="R5">
-        <v>2.878326598889</v>
+        <v>0.056121107784</v>
       </c>
       <c r="S5">
-        <v>0.05195589418291392</v>
+        <v>0.004388278485127628</v>
       </c>
       <c r="T5">
-        <v>0.05195589418291392</v>
+        <v>0.004388278485127627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H6">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I6">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J6">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.038293</v>
       </c>
       <c r="O6">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P6">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q6">
-        <v>0.5106104625152222</v>
+        <v>0.02259602446133333</v>
       </c>
       <c r="R6">
-        <v>4.595494162637</v>
+        <v>0.203364220152</v>
       </c>
       <c r="S6">
-        <v>0.08295202098480634</v>
+        <v>0.01590166101803512</v>
       </c>
       <c r="T6">
-        <v>0.08295202098480635</v>
+        <v>0.01590166101803512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H7">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I7">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J7">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N7">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q7">
-        <v>4.496983004987666</v>
+        <v>0.2860681641173333</v>
       </c>
       <c r="R7">
-        <v>40.47284704488899</v>
+        <v>2.574613477056</v>
       </c>
       <c r="S7">
-        <v>0.7305644047333509</v>
+        <v>0.2013167839161142</v>
       </c>
       <c r="T7">
-        <v>0.7305644047333509</v>
+        <v>0.2013167839161141</v>
       </c>
     </row>
   </sheetData>
